--- a/FLAG.xlsx
+++ b/FLAG.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\pathway-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C51D860-F853-494E-8029-C534D2D72703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A57702-7F4A-46BA-9886-8A4140583F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9D8A1D1D-37D2-4344-9954-892BEDBCDA19}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{9D8A1D1D-37D2-4344-9954-892BEDBCDA19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="52">
   <si>
     <t>Region</t>
   </si>
@@ -188,18 +189,26 @@
   <si>
     <t>Indonesia region</t>
   </si>
+  <si>
+    <t>Forestry, Land-use and Agriculture (FLAG) accounts for around 22% of global greenhouse gas emissions, based on estimates from the IPCC and FAO. These emissions are largely non-CO₂ and arise from sources such as deforestation, enteric fermentation in livestock, manure management, fertilizer use, and rice cultivation. Unlike other sectors, emissions from FLAG are not primarily energy-related, which makes them less responsive to traditional decarbonization technologies like electrification.Despite the sector’s potential to deliver low-cost mitigation, emissions are not yet on a declining trend. To align with a 1.5°C pathway, FLAG emissions must peak before 2030 and decline significantly thereafter. At the same time, the sector must shift from being a net source of emissions to a net carbon sink by mid-century, through practices such as reforestation, improved soil management, and changes in agricultural practices. According to the IPCC, land-based removals need to reach up to 3–6 GtCO₂ per year by 2050 to close the global emissions gap.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Seaford"/>
     </font>
   </fonts>
   <fills count="2">
@@ -222,8 +231,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,7 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB968715-B556-47D2-9B38-EC875982D09B}">
   <dimension ref="A1:H299"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -8329,4 +8341,41 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F560629-A2CC-4369-85E7-1414943F7006}">
+  <dimension ref="A1:O1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:O1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>